--- a/DB/SQLCommandsFromExcel/SQLCommandInsertToDBInventoryItemMedicine.xlsx
+++ b/DB/SQLCommandsFromExcel/SQLCommandInsertToDBInventoryItemMedicine.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USBONG\Usbong\Usbong KMS\DB\Commands\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="MEDICINE" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -447,7 +442,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -504,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -780,7 +775,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -790,9 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -800,8 +793,8 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="109" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="131.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1031,7 +1024,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C10" s="5">
         <v>9</v>
@@ -1048,7 +1041,7 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `item` (`item_type_id`, `item_name`, `item_price`) VALUES ('1', 'ALENDRONETE SODIUM (ALDREN) 70mg', '300');</v>
+        <v>INSERT INTO `item` (`item_type_id`, `item_name`, `item_price`) VALUES ('1', 'ALENDRONETE SODIUM (ALDREN) 70mg', '150');</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1056,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C11" s="5">
         <v>10</v>
@@ -1073,7 +1066,7 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `item` (`item_type_id`, `item_name`, `item_price`) VALUES ('1', 'ALENDRONETE SODIUM (ALENDRA) 70mg', '280');</v>
+        <v>INSERT INTO `item` (`item_type_id`, `item_name`, `item_price`) VALUES ('1', 'ALENDRONETE SODIUM (ALENDRA) 70mg', '300');</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
